--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/SgInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/SgInfiniteBus.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3DD803-146F-422D-B858-25F210708DE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4A17F5-0634-454C-B792-DCF9326F637D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Apparatus" sheetId="3" r:id="rId2"/>
     <sheet name="NetworkLine_IEEE" sheetId="5" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="Basic" sheetId="4" r:id="rId5"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes the devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +237,10 @@
   </si>
   <si>
     <t>Area type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -761,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -770,13 +770,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -847,12 +847,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -876,16 +876,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -950,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -987,7 +987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1001,7 +1001,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -1020,7 +1020,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2">
         <v>60</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1064,7 +1064,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -1106,7 +1106,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/SgInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/SgInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4A17F5-0634-454C-B792-DCF9326F637D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28667507-9CF0-45FF-906B-B5B8FC7AA818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>G (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -609,12 +605,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
@@ -649,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -742,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -761,23 +757,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -837,22 +833,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -862,7 +858,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -876,16 +872,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -911,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -922,12 +918,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -950,7 +946,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -969,8 +965,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1001,17 +997,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <f>B4*1000</f>
@@ -1020,7 +1016,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>60</v>
@@ -1028,7 +1024,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1036,7 +1032,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1064,17 +1060,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1082,7 +1078,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1090,7 +1086,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1098,7 +1094,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1106,7 +1102,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1114,7 +1110,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1122,7 +1118,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1130,7 +1126,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1138,7 +1134,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1146,7 +1142,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>0</v>

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/SgInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/SgInfiniteBus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28667507-9CF0-45FF-906B-B5B8FC7AA818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BF6A95-B1A8-4619-9849-B7A2AB16398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,18 @@
   <si>
     <t>This sheet summarizes the apparatuses connected to buses.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J (pu)</t>
+  </si>
+  <si>
+    <t>D (pu)</t>
+  </si>
+  <si>
+    <t>wL (pu)</t>
+  </si>
+  <si>
+    <t>R (pu)</t>
   </si>
 </sst>
 </file>
@@ -598,7 +610,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -659,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -677,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>-999</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -703,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -715,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>-999</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -736,10 +748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -766,53 +778,69 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="2">
+        <f>E6/10</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -907,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -957,10 +985,11 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f>D4/10</f>
+        <v>0.03</v>
       </c>
       <c r="D4">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1050,7 +1079,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1113,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">

--- a/Examples/AcPowerSystem/SingleApparatusInfiniteBus/SgInfiniteBus.xlsx
+++ b/Examples/AcPowerSystem/SingleApparatusInfiniteBus/SgInfiniteBus.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\AcPowerSystem\SingleApparatusInfiniteBus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28667507-9CF0-45FF-906B-B5B8FC7AA818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="11655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,15 +16,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,227 +32,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+  <si>
+    <t>This sheet summarizes the parameters for power flow analysis</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
   <si>
     <t>bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>theta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PGi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QGi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PLi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QLi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Qmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Qmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area No.</t>
+  </si>
+  <si>
+    <t>Area type</t>
+  </si>
+  <si>
+    <t>This sheet summarizes the apparatuses connected to buses.</t>
+  </si>
+  <si>
+    <t>bus number</t>
+  </si>
+  <si>
+    <t>type number</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>2*pi*60</t>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
+  </si>
+  <si>
+    <t>Enable:</t>
   </si>
   <si>
     <t>from bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>to bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (pu)</t>
+  </si>
+  <si>
+    <t>B/2 (pu)</t>
+  </si>
+  <si>
+    <t>G/2 (pu)</t>
+  </si>
+  <si>
+    <t>Turns Ratio</t>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance.</t>
   </si>
   <si>
     <t>wL (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wC (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notes:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for power flow analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio (pu)</t>
+  </si>
+  <si>
+    <t>This sheet summarizes basic settings</t>
+  </si>
+  <si>
+    <t>Samping frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Base Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Base Power (VA)</t>
+  </si>
+  <si>
+    <t>Base Voltage (V)</t>
+  </si>
+  <si>
+    <t>This sheets summaries advanced settings for the toolbox</t>
   </si>
   <si>
     <t>Discretization Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samping frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Linearization Times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Discre Damping Flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DirectFeedthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G/2 (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Turns Ratio (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Flow Algorithm</t>
   </si>
   <si>
     <t>Enable_SimulinkModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enable_PlotPole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enable_PlotAdmittance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheets summaries advanced settings for the toolbox</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Power (VA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Voltage (V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes basic settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enable_PrintOutput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Flow Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enable_Participation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This sheet summarizes the apparatuses connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -267,7 +211,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -275,28 +218,349 @@
       <b/>
       <sz val="11"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -304,29 +568,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -375,7 +929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -410,7 +964,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -584,74 +1138,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -689,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
@@ -728,228 +1277,279 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.53125" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.796875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" customWidth="1"/>
-    <col min="9" max="9" width="24.1328125" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="31.5333333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.8666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="13.8" customWidth="1"/>
+    <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="22.4666666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.2" customWidth="1"/>
+    <col min="9" max="9" width="24.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>90</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="6">
+        <v>9</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2.1028</v>
+      </c>
+      <c r="P5" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.103</v>
+      </c>
+      <c r="R5" s="6">
+        <v>10.659857</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.02056</v>
+      </c>
+      <c r="T5" s="6">
+        <v>200</v>
+      </c>
+      <c r="U5" s="6">
+        <v>20</v>
+      </c>
+      <c r="V5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="W5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="E11" s="1"/>
+    <row r="8" spans="5:5">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
+    <col min="7" max="7" width="14.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -957,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D4">
         <v>0.65</v>
@@ -973,134 +1573,136 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.53125" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
+    <col min="2" max="2" width="18.5333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.8666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3">
         <f>B4*1000</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.796875" customWidth="1"/>
+    <col min="1" max="1" width="20.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1108,49 +1710,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>